--- a/Excel/Common/Setting.xlsx
+++ b/Excel/Common/Setting.xlsx
@@ -212,33 +212,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -385,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,24 +374,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -597,27 +559,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,94 +685,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,58 +790,37 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1241,194 +1176,193 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.75" style="2" customWidth="1"/>
-    <col min="5" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
@@ -1436,10 +1370,10 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
@@ -1447,7 +1381,7 @@
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Excel/Common/Setting.xlsx
+++ b/Excel/Common/Setting.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="4" r:id="rId1"/>
+    <sheet name="RTS" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -199,7 +200,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>RTSVal</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1173,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1380,11 +1384,237 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="1" t="s">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.75" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:5">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:5">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:5">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:5">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel/Common/Setting.xlsx
+++ b/Excel/Common/Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +198,75 @@
       </rPr>
       <t>大地图_商队_初始资金</t>
     </r>
+  </si>
+  <si>
+    <t>mainCity_Camera_PosLimit</t>
+  </si>
+  <si>
+    <t>-60,7,-20,30</t>
+  </si>
+  <si>
+    <t>移动范围限制</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_panDampening</t>
+  </si>
+  <si>
+    <t>移动平滑度</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_touchPanSpeed</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>触摸平移速度</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_touchMinDistance</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>触摸最小距离</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_zoomDefaultSize</t>
+  </si>
+  <si>
+    <t>缩放默认值</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_zoomMinSize</t>
+  </si>
+  <si>
+    <t>缩放最小值</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_zoomMaxSize</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>缩放最大值</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_touchZoomSpeed</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>触摸缩放速度</t>
+  </si>
+  <si>
+    <t>mainCity_Camera_zoomDampening</t>
+  </si>
+  <si>
+    <t>缩放平滑度</t>
   </si>
   <si>
     <t>RTSVal</t>
@@ -1177,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1384,6 +1453,105 @@
         <v>48</v>
       </c>
     </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1395,7 +1563,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1422,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1460,7 +1628,7 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
